--- a/로스트아크/데이터테이블/(참고용)Skilltable.xlsx
+++ b/로스트아크/데이터테이블/(참고용)Skilltable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\취업\기획방\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FC7860-89BB-4B20-B350-6AB160D165C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA374B1-36C0-4454-ACB8-A71E3873B442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="2" r:id="rId1"/>
@@ -8269,7 +8269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
   <dimension ref="B1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -10024,8 +10024,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92AA6C23-4463-4E33-A372-1AB2136309A4}">
   <dimension ref="A1:AC28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:AC1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
